--- a/L/LAB1/PEIE_LAB1.xlsx
+++ b/L/LAB1/PEIE_LAB1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\PEIE\L\LAB1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA5A73A-63BE-43F4-8D16-823E56A6A698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E737AC76-3DAF-447E-A2A5-A8C2883292B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{476623CB-4762-4055-A21D-4CB34F845E42}"/>
+    <workbookView xWindow="16950" yWindow="5280" windowWidth="21600" windowHeight="11385" xr2:uid="{476623CB-4762-4055-A21D-4CB34F845E42}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>R</t>
   </si>
@@ -233,6 +233,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3226CC4A-B292-4731-A9BA-EFCDB4147A39}" name="Tabela1" displayName="Tabela1" ref="J5:K16" totalsRowShown="0">
+  <autoFilter ref="J5:K16" xr:uid="{141D2D67-A2E5-43B9-9FC2-F1A8E52FC6B7}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E12813C5-FF22-4BD7-AD87-3602BE7F60B6}" name="R"/>
+    <tableColumn id="2" xr3:uid="{90A04345-EC2E-4E5C-9817-2C7CE5F6EE93}" name="U"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,111 +543,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4099E65-1461-45F4-8671-021EA6E40CCA}">
-  <dimension ref="D5:E54"/>
+  <dimension ref="D5:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>150</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>150</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>200</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>200</v>
+      </c>
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>250</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>250</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>300</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>300</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>350</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>1000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>400</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>1200</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>450</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>2200</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>500</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>2400</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>550</v>
       </c>
@@ -644,7 +763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>600</v>
       </c>
@@ -652,7 +771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>650</v>
       </c>
@@ -660,7 +779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>700</v>
       </c>
@@ -668,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>750</v>
       </c>
@@ -676,7 +795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>800</v>
       </c>
@@ -684,7 +803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>850</v>
       </c>
@@ -692,7 +811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>900</v>
       </c>
@@ -700,7 +819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>950</v>
       </c>
@@ -708,7 +827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>1000</v>
       </c>
@@ -716,7 +835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>1050</v>
       </c>
@@ -724,7 +843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>1100</v>
       </c>
@@ -732,7 +851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>1150</v>
       </c>
@@ -740,7 +859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>1200</v>
       </c>
@@ -748,7 +867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>1250</v>
       </c>
@@ -756,7 +875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>1300</v>
       </c>
@@ -764,7 +883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>1350</v>
       </c>
@@ -772,7 +891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>1400</v>
       </c>
@@ -780,7 +899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>1450</v>
       </c>
@@ -788,7 +907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>1500</v>
       </c>
@@ -796,7 +915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>1550</v>
       </c>
@@ -804,7 +923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>1600</v>
       </c>
@@ -812,7 +931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>1650</v>
       </c>
@@ -820,7 +939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>1700</v>
       </c>
@@ -828,7 +947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>1750</v>
       </c>
@@ -836,7 +955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>1800</v>
       </c>
@@ -844,7 +963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>1850</v>
       </c>
@@ -852,7 +971,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>1900</v>
       </c>
@@ -860,7 +979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>1950</v>
       </c>
@@ -868,7 +987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>2000</v>
       </c>
@@ -876,7 +995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>2050</v>
       </c>
@@ -884,7 +1003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>2100</v>
       </c>
@@ -892,7 +1011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>2150</v>
       </c>
@@ -900,7 +1019,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>2200</v>
       </c>
@@ -908,7 +1027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>2250</v>
       </c>
@@ -916,7 +1035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>2300</v>
       </c>
@@ -924,7 +1043,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>2350</v>
       </c>
@@ -932,7 +1051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>2400</v>
       </c>
@@ -942,5 +1061,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>